--- a/pcb/bom.xlsx
+++ b/pcb/bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sawaiz\OneDrive\projects\mppcSensorInterface\pcb\highVoltage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\Projects\mppc\mppcHighVoltage\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="123">
   <si>
     <t>QTY</t>
   </si>
@@ -164,24 +164,6 @@
     <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188145609&amp;uq=635911598142329427</t>
   </si>
   <si>
-    <t>SH1</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188145484&amp;uq=635911598142319415</t>
-  </si>
-  <si>
-    <t>952-2634-ND</t>
-  </si>
-  <si>
-    <t>S02-30200250</t>
-  </si>
-  <si>
-    <t>RFI SHIELD CAN 30X20X2.5MM</t>
-  </si>
-  <si>
-    <t>EMI Shield</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
@@ -342,17 +324,89 @@
   </si>
   <si>
     <t>R1</t>
+  </si>
+  <si>
+    <t>NAU7802SGI-ND</t>
+  </si>
+  <si>
+    <t>NAU7802SGI</t>
+  </si>
+  <si>
+    <t>IC ADC 24BIT I2C/SRL 16-SOP</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>99K</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>.1uF</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>RF Shield</t>
+  </si>
+  <si>
+    <t>RFI SHIELD CAN 20X15X3MM</t>
+  </si>
+  <si>
+    <t>952-2632-ND</t>
+  </si>
+  <si>
+    <t>S02-20150300</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en/rf-if-and-rfid/rf-shields/3539677?k=&amp;pkeyword=&amp;pv577=1130&amp;pv1217=41&amp;FV=fff40036%2Cfff802dd%2Cfffc03b8&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=0&amp;page=1&amp;stock=1&amp;quantity=0&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +417,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -385,11 +453,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -397,9 +466,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,6 +566,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -526,6 +618,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -678,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +837,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -749,7 +858,7 @@
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="H2" s="1">
-        <f>G2*F2</f>
+        <f t="shared" ref="H2:H17" si="0">G2*F2</f>
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="I2" t="s">
@@ -758,19 +867,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -779,11 +888,11 @@
         <v>0.13</v>
       </c>
       <c r="H3" s="1">
-        <f>G3*F3</f>
+        <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -791,16 +900,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -809,11 +918,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H4" s="1">
-        <f>G4*F4</f>
+        <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -821,16 +930,16 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -839,28 +948,28 @@
         <v>0.157</v>
       </c>
       <c r="H5" s="1">
-        <f>G5*F5</f>
+        <f t="shared" si="0"/>
         <v>0.157</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -869,16 +978,16 @@
         <v>1.12E-2</v>
       </c>
       <c r="H6" s="1">
-        <f>G6*F6</f>
+        <f t="shared" si="0"/>
         <v>1.12E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -899,7 +1008,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H7" s="1">
-        <f>G7*F7</f>
+        <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I7" t="s">
@@ -929,7 +1038,7 @@
         <v>0.24</v>
       </c>
       <c r="H8" s="1">
-        <f>G8*F8</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="I8" t="s">
@@ -959,7 +1068,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H9" s="1">
-        <f>G9*F9</f>
+        <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="I9" t="s">
@@ -968,7 +1077,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -989,28 +1098,28 @@
         <v>0.1032</v>
       </c>
       <c r="H10" s="1">
-        <f>G10*F10</f>
+        <f t="shared" si="0"/>
         <v>0.1032</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1019,28 +1128,28 @@
         <v>0.12759999999999999</v>
       </c>
       <c r="H11" s="1">
-        <f>G11*F11</f>
+        <f t="shared" si="0"/>
         <v>0.12759999999999999</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1049,28 +1158,28 @@
         <v>0.12759999999999999</v>
       </c>
       <c r="H12" s="1">
-        <f>G12*F12</f>
+        <f t="shared" si="0"/>
         <v>0.12759999999999999</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1079,28 +1188,28 @@
         <v>0.19</v>
       </c>
       <c r="H13" s="1">
-        <f>G13*F13</f>
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1109,28 +1218,28 @@
         <v>0.12759999999999999</v>
       </c>
       <c r="H14" s="1">
-        <f>G14*F14</f>
+        <f t="shared" si="0"/>
         <v>0.12759999999999999</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1139,101 +1248,188 @@
         <v>0.19</v>
       </c>
       <c r="H15" s="1">
-        <f>G15*F15</f>
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="4">
+        <v>43</v>
+      </c>
+      <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="5">
-        <v>3.1919</v>
+        <v>7.2827999999999999</v>
       </c>
       <c r="H16" s="1">
-        <f>G16*F16</f>
-        <v>3.1919</v>
+        <f t="shared" si="0"/>
+        <v>7.2827999999999999</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="3">
+        <v>102</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="5">
-        <v>7.2827999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="H17" s="1">
-        <f>G17*F17</f>
-        <v>7.2827999999999999</v>
-      </c>
-      <c r="I17" t="s">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="3"/>
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="3"/>
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="3"/>
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="3"/>
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="3"/>
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="3"/>
-      <c r="H24" s="1"/>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3.53</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="I24" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
@@ -1244,10 +1440,10 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="3"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="3"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1255,14 +1451,10 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="3"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1">
@@ -1270,7 +1462,10 @@
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="I10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/pcb/bom.xlsx
+++ b/pcb/bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Projects\mppcHighVoltage\mppcHighVoltage\pcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sawaiz\OneDrive\projects\mppcHighVoltage\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="142">
   <si>
     <t>QTY</t>
   </si>
@@ -320,24 +320,12 @@
     <t>U2</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>C7</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>.1uF</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
     <t>RF Shield</t>
   </si>
   <si>
@@ -353,9 +341,6 @@
     <t>http://www.digikey.com/product-search/en/rf-if-and-rfid/rf-shields/3539677?k=&amp;pkeyword=&amp;pv577=1130&amp;pv1217=41&amp;FV=fff40036%2Cfff802dd%2Cfffc03b8&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=0&amp;page=1&amp;stock=1&amp;quantity=0&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
   </si>
   <si>
-    <t>10k 0.1%</t>
-  </si>
-  <si>
     <t>R2, R6</t>
   </si>
   <si>
@@ -368,9 +353,6 @@
     <t>10µF 6.3V Ceramic Capacitor X5R 0603</t>
   </si>
   <si>
-    <t>RX</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM155R71C104KA88J/490-6328-2-ND/2610892</t>
   </si>
   <si>
@@ -389,9 +371,6 @@
     <t>http://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM155R60G106ME44D/490-10693-2-ND/4905101</t>
   </si>
   <si>
-    <t>220k 1%</t>
-  </si>
-  <si>
     <t>RES SMD 220K OHM 1% 1/16W 0402</t>
   </si>
   <si>
@@ -401,9 +380,6 @@
     <t>RES SMD 270K OHM 1% 1/16W 0402</t>
   </si>
   <si>
-    <t>270k 1%</t>
-  </si>
-  <si>
     <t>RC0402FR-07270KL</t>
   </si>
   <si>
@@ -456,6 +432,27 @@
   </si>
   <si>
     <t>CPF0402B20RE1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>HV Divider</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>C6, C10</t>
+  </si>
+  <si>
+    <t>Decoupling Capacitor</t>
   </si>
 </sst>
 </file>
@@ -624,6 +621,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -659,6 +673,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -814,7 +845,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -897,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -927,7 +958,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
@@ -1161,10 +1192,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>67</v>
@@ -1200,7 +1231,7 @@
         <v>83</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
         <v>82</v>
@@ -1260,7 +1291,7 @@
         <v>80</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
         <v>79</v>
@@ -1316,13 +1347,13 @@
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>92</v>
       </c>
       <c r="F17" s="3">
@@ -1336,24 +1367,24 @@
         <v>1.3442000000000001</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
+        <v>121</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1366,24 +1397,24 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>139</v>
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1396,24 +1427,24 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
         <v>112</v>
       </c>
-      <c r="D20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>140</v>
+      <c r="E20" t="s">
+        <v>132</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1426,21 +1457,24 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1453,24 +1487,24 @@
         <v>3.53</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1483,24 +1517,24 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
         <v>124</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1513,24 +1547,24 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1543,7 +1577,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">

--- a/pcb/bom.xlsx
+++ b/pcb/bom.xlsx
@@ -518,16 +518,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
@@ -814,7 +811,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +882,7 @@
         <f t="shared" ref="H2:H24" si="0">G2*F2</f>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -896,7 +893,7 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>137</v>
       </c>
       <c r="D3" t="s">
@@ -905,7 +902,7 @@
       <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="4">
@@ -915,7 +912,7 @@
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -926,7 +923,7 @@
       <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>138</v>
       </c>
       <c r="D4" t="s">
@@ -935,7 +932,7 @@
       <c r="E4" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="4">
@@ -945,7 +942,7 @@
         <f t="shared" si="0"/>
         <v>0.14849999999999999</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -965,7 +962,7 @@
       <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" s="4">
@@ -975,7 +972,7 @@
         <f t="shared" si="0"/>
         <v>0.157</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -995,7 +992,7 @@
       <c r="E6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="4">
@@ -1005,7 +1002,7 @@
         <f t="shared" si="0"/>
         <v>1.12E-2</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1025,7 +1022,7 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" s="4">
@@ -1035,7 +1032,7 @@
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1055,17 +1052,17 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="4">
         <v>0.24</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f>G8*F8</f>
         <v>0.24</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1085,17 +1082,17 @@
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" s="4">
         <v>0.14000000000000001</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f>G9*F9</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1115,7 +1112,7 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" s="4">
@@ -1125,7 +1122,7 @@
         <f t="shared" si="0"/>
         <v>0.1032</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1145,7 +1142,7 @@
       <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="4">
@@ -1155,7 +1152,7 @@
         <f t="shared" si="0"/>
         <v>0.12759999999999999</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1175,7 +1172,7 @@
       <c r="E12" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" s="4">
@@ -1185,7 +1182,7 @@
         <f t="shared" si="0"/>
         <v>0.25519999999999998</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1199,13 +1196,13 @@
       <c r="C13" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>141</v>
       </c>
       <c r="E13" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" s="4">
@@ -1215,7 +1212,7 @@
         <f t="shared" si="0"/>
         <v>0.2082</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1235,7 +1232,7 @@
       <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" s="4">
@@ -1245,7 +1242,7 @@
         <f t="shared" si="0"/>
         <v>0.12759999999999999</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1259,23 +1256,23 @@
       <c r="C15" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>142</v>
       </c>
       <c r="E15" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" s="4">
         <v>0.1973</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
+        <f>G15*F15</f>
         <v>0.1973</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1295,7 +1292,7 @@
       <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="4">
@@ -1305,7 +1302,7 @@
         <f t="shared" si="0"/>
         <v>7.2827999999999999</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1316,16 +1313,16 @@
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" s="4">
@@ -1335,7 +1332,7 @@
         <f t="shared" si="0"/>
         <v>1.3442000000000001</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1346,13 +1343,13 @@
       <c r="B18" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>129</v>
       </c>
       <c r="F18">
@@ -1365,7 +1362,7 @@
         <f t="shared" si="0"/>
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1382,7 +1379,7 @@
       <c r="D19" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>139</v>
       </c>
       <c r="F19">
@@ -1395,7 +1392,7 @@
         <f t="shared" si="0"/>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1412,7 +1409,7 @@
       <c r="D20" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>140</v>
       </c>
       <c r="F20">
@@ -1425,7 +1422,7 @@
         <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1452,7 +1449,7 @@
         <f t="shared" si="0"/>
         <v>3.53</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1463,13 +1460,13 @@
       <c r="B22" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>133</v>
       </c>
       <c r="F22">
@@ -1482,7 +1479,7 @@
         <f t="shared" si="0"/>
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1493,13 +1490,13 @@
       <c r="B23" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>132</v>
       </c>
       <c r="F23">
@@ -1512,7 +1509,7 @@
         <f t="shared" si="0"/>
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1523,13 +1520,13 @@
       <c r="B24" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>130</v>
       </c>
       <c r="F24">
@@ -1542,7 +1539,7 @@
         <f t="shared" si="0"/>
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>131</v>
       </c>
     </row>

--- a/pcb/bom.xlsx
+++ b/pcb/bom.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Projects\mppcHighVoltage\mppcHighVoltage\pcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sawaiz\OneDrive\projects\mppcHighVoltage\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
   <si>
     <t>QTY</t>
   </si>
@@ -368,9 +368,6 @@
     <t>10µF 6.3V Ceramic Capacitor X5R 0603</t>
   </si>
   <si>
-    <t>RX</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM155R71C104KA88J/490-6328-2-ND/2610892</t>
   </si>
   <si>
@@ -456,6 +453,18 @@
   </si>
   <si>
     <t>CPF0402B20RE1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R8</t>
   </si>
 </sst>
 </file>
@@ -621,6 +630,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -656,6 +682,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -811,7 +854,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -894,7 +937,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -924,7 +967,7 @@
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
@@ -1197,7 +1240,7 @@
         <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
         <v>82</v>
@@ -1257,7 +1300,7 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
         <v>79</v>
@@ -1347,10 +1390,10 @@
         <v>111</v>
       </c>
       <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="s">
         <v>128</v>
-      </c>
-      <c r="E18" t="s">
-        <v>129</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1363,7 +1406,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1374,13 +1417,13 @@
         <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1393,7 +1436,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1407,10 +1450,10 @@
         <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1423,10 +1466,13 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
       <c r="B21" t="s">
         <v>103</v>
       </c>
@@ -1455,19 +1501,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
         <v>120</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>121</v>
       </c>
-      <c r="D22" t="s">
-        <v>122</v>
-      </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1480,24 +1526,24 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
         <v>124</v>
       </c>
-      <c r="C23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" t="s">
-        <v>125</v>
-      </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1510,24 +1556,24 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
         <v>108</v>
       </c>
       <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
         <v>126</v>
       </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1540,7 +1586,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
